--- a/src/main/resources/CompilerDictionary/LocatorDictionary/CapellaGetStartedLocators.xlsx
+++ b/src/main/resources/CompilerDictionary/LocatorDictionary/CapellaGetStartedLocators.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhinav\IdeaProjects\CouchBase\src\main\resources\CompilerDictionary\LocatorDictionary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gurcharan/Desktop/Mobile-Web-Automation/src/main/resources/CompilerDictionary/LocatorDictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4D8B8A-3BAF-4B02-838D-60F982A0BF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7489E3DD-2F48-5441-860A-3632E0A30C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{20D7069A-4DD5-4C65-B401-202EC57138CE}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="19420" windowHeight="10420" xr2:uid="{20D7069A-4DD5-4C65-B401-202EC57138CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>Sno</t>
   </si>
@@ -123,6 +123,15 @@
   </si>
   <si>
     <t>//header[contains(@class,'site-header')]//img[@alt='Couchbase']</t>
+  </si>
+  <si>
+    <t>Locator Type</t>
+  </si>
+  <si>
+    <t>Xpath</t>
+  </si>
+  <si>
+    <t>CSS</t>
   </si>
 </sst>
 </file>
@@ -518,21 +527,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12286EA8-4948-4240-8FB5-079F6680BDB4}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="4"/>
-    <col min="2" max="2" width="55.6328125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="64.7265625" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="4"/>
+    <col min="1" max="1" width="8.6640625" style="4"/>
+    <col min="2" max="2" width="55.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="64.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,8 +552,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -553,8 +566,11 @@
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -564,8 +580,11 @@
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -575,8 +594,11 @@
       <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -586,8 +608,11 @@
       <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D5" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -597,8 +622,11 @@
       <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -608,8 +636,11 @@
       <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D7" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -619,8 +650,11 @@
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D8" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -630,8 +664,11 @@
       <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D9" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -641,8 +678,11 @@
       <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D10" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -652,8 +692,11 @@
       <c r="C11" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D11" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -663,8 +706,11 @@
       <c r="C12" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D12" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -674,8 +720,11 @@
       <c r="C13" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D13" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -684,6 +733,9 @@
       </c>
       <c r="C14" s="4" t="s">
         <v>14</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
